--- a/assets/Archivos/Finanzas/dañado.xlsx
+++ b/assets/Archivos/Finanzas/dañado.xlsx
@@ -5,22 +5,25 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Octavio\Desktop\SFM Proyecto\sneat-1.0.0\assets\Archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Octavio\Desktop\SFM Proyecto\SFM Proyecto\assets\Archivos\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C633D6F-E13A-44DB-AE90-3A597F763BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F069E78-B9CA-42D6-B06F-4C7A00280D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2295" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Diario" sheetId="1" r:id="rId1"/>
+    <sheet name="6103" sheetId="4" r:id="rId1"/>
+    <sheet name="6115" sheetId="3" r:id="rId2"/>
+    <sheet name="6151" sheetId="1" r:id="rId3"/>
+    <sheet name="6150" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
   <si>
     <t>Mes</t>
   </si>
@@ -449,11 +452,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE9490F-2A10-4C45-9E5D-39974E6125A7}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -601,6 +604,492 @@
         <v>357183</v>
       </c>
     </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1D95F2-7837-46E1-90EA-9688D0A47D11}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>297168</v>
+      </c>
+      <c r="C2">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>522591</v>
+      </c>
+      <c r="C3">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>427664</v>
+      </c>
+      <c r="C4">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>405354</v>
+      </c>
+      <c r="C5">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>425354</v>
+      </c>
+      <c r="C6">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>297168</v>
+      </c>
+      <c r="C2">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>522591</v>
+      </c>
+      <c r="C3">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>427664</v>
+      </c>
+      <c r="C4">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>405354</v>
+      </c>
+      <c r="C5">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>425354</v>
+      </c>
+      <c r="C6">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE35FF3D-4898-418A-BA4A-C4B143363981}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>297168</v>
+      </c>
+      <c r="C2">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>522591</v>
+      </c>
+      <c r="C3">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>427664</v>
+      </c>
+      <c r="C4">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>405354</v>
+      </c>
+      <c r="C5">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>425354</v>
+      </c>
+      <c r="C6">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>357183</v>
+      </c>
+    </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" s="1"/>
     </row>

--- a/assets/Archivos/Finanzas/dañado.xlsx
+++ b/assets/Archivos/Finanzas/dañado.xlsx
@@ -5,25 +5,26 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Octavio\Desktop\SFM Proyecto\SFM Proyecto\assets\Archivos\Finanzas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Octavio\Desktop\SFM-Proyecto\assets\Archivos\Finanzas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F069E78-B9CA-42D6-B06F-4C7A00280D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F2A8A0-7DD1-44DB-8F46-E0E46FE6E222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2295" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="6103" sheetId="4" r:id="rId1"/>
-    <sheet name="6115" sheetId="3" r:id="rId2"/>
-    <sheet name="6151" sheetId="1" r:id="rId3"/>
-    <sheet name="6150" sheetId="2" r:id="rId4"/>
+    <sheet name="Corazones" sheetId="5" r:id="rId1"/>
+    <sheet name="6103" sheetId="4" r:id="rId2"/>
+    <sheet name="6115" sheetId="3" r:id="rId3"/>
+    <sheet name="6151" sheetId="1" r:id="rId4"/>
+    <sheet name="6150" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="15">
   <si>
     <t>Mes</t>
   </si>
@@ -452,10 +453,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8A27F0-527A-4080-9B29-A85B7AC829B7}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>297168</v>
+      </c>
+      <c r="C2">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>522591</v>
+      </c>
+      <c r="C3">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>427664</v>
+      </c>
+      <c r="C4">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>405354</v>
+      </c>
+      <c r="C5">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>425354</v>
+      </c>
+      <c r="C6">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>357183</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE9490F-2A10-4C45-9E5D-39974E6125A7}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -615,7 +783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1D95F2-7837-46E1-90EA-9688D0A47D11}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -776,7 +944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -937,7 +1105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE35FF3D-4898-418A-BA4A-C4B143363981}">
   <dimension ref="A1:F17"/>
   <sheetViews>
